--- a/Komponentliste.xlsx
+++ b/Komponentliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/633d98314e6f512e/Dokumenter/IT Teknolog/0. Gitlab/Code/fredericia_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{13F38168-D5C3-46EB-96E2-20587446F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A516B0B5-E534-46BA-A690-6A137348C7D6}"/>
+  <xr:revisionPtr revIDLastSave="16" documentId="8_{13F38168-D5C3-46EB-96E2-20587446F560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB65D635-A560-4F1E-B92E-DDF2D3045495}"/>
   <bookViews>
     <workbookView xWindow="1515" yWindow="1590" windowWidth="21600" windowHeight="11295" xr2:uid="{917C31CC-B0DA-475A-BEE2-B47F0DDF29C0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Komponent</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Breadboard</t>
+  </si>
+  <si>
+    <t>https://dk.rs-online.com/web/p/raspberry-pi-kameraer/9132673</t>
   </si>
 </sst>
 </file>
@@ -136,6 +139,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,7 +445,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,6 +503,12 @@
       <c r="C5">
         <v>1</v>
       </c>
+      <c r="D5">
+        <v>171</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
